--- a/San_Salvador/Docs_Resultados/CE_Escenarios.xlsx
+++ b/San_Salvador/Docs_Resultados/CE_Escenarios.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7740"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7740"/>
   </bookViews>
   <sheets>
     <sheet name="CE_Escenarios" sheetId="1" r:id="rId1"/>
@@ -14,39 +14,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
   <si>
     <t>ARA</t>
   </si>
   <si>
-    <t>Rot_1_0.3</t>
-  </si>
-  <si>
-    <t>Rot_1y6_0.3</t>
-  </si>
-  <si>
-    <t>Rot_6_0.3</t>
-  </si>
-  <si>
-    <t>Rot_1_0.4</t>
-  </si>
-  <si>
-    <t>Rot_1y6_0.4</t>
-  </si>
-  <si>
-    <t>Rot_6_0.4</t>
-  </si>
-  <si>
-    <t>Rot_1_0.5</t>
-  </si>
-  <si>
-    <t>Rot_1y6_0.5</t>
-  </si>
-  <si>
-    <t>Rot_6_0.5</t>
-  </si>
-  <si>
-    <t>Base_Sin_Riego</t>
+    <t>rn</t>
+  </si>
+  <si>
+    <t>Rot1y6_80</t>
+  </si>
+  <si>
+    <t>Rot1y6_95</t>
+  </si>
+  <si>
+    <t>Rot1y6_40</t>
+  </si>
+  <si>
+    <t>Rot1_80</t>
+  </si>
+  <si>
+    <t>Rot1_95</t>
+  </si>
+  <si>
+    <t>Rot1_40</t>
+  </si>
+  <si>
+    <t>Rot6_80</t>
+  </si>
+  <si>
+    <t>Rot6_95</t>
+  </si>
+  <si>
+    <t>Rot6_40</t>
+  </si>
+  <si>
+    <t>base</t>
   </si>
   <si>
     <t>ARA_0</t>
@@ -71,6 +74,9 @@
   </si>
   <si>
     <t>ARA_0.49</t>
+  </si>
+  <si>
+    <t>|</t>
   </si>
 </sst>
 </file>
@@ -903,18 +909,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="11" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -922,327 +929,683 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
       <c r="H1" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
       </c>
       <c r="K1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1">
-        <v>1130489.3</v>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
       </c>
       <c r="C2" s="1">
-        <v>1123138.6000000001</v>
+        <v>573563.87</v>
       </c>
       <c r="D2" s="1">
-        <v>1118671</v>
+        <v>571851.18000000005</v>
       </c>
       <c r="E2" s="1">
-        <v>1130599.5</v>
+        <v>567761.85</v>
       </c>
       <c r="F2" s="1">
-        <v>1123240.8999999999</v>
+        <v>543496.07299999997</v>
       </c>
       <c r="G2" s="1">
-        <v>1118693.1000000001</v>
+        <v>541420.98670000001</v>
       </c>
       <c r="H2" s="1">
-        <v>1130751.8999999999</v>
+        <v>538857.58018000005</v>
       </c>
       <c r="I2" s="1">
-        <v>1123246.3</v>
+        <v>538857.58018000005</v>
       </c>
       <c r="J2" s="1">
-        <v>1118562.8</v>
+        <v>538857.58018000005</v>
       </c>
       <c r="K2" s="1">
-        <v>1126070.1000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+        <v>538857.58018000005</v>
+      </c>
+      <c r="L2" s="1">
+        <v>479559.98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1">
+        <v>367160.56</v>
+      </c>
+      <c r="D3" s="1">
+        <v>370498.67</v>
+      </c>
+      <c r="E3" s="1">
+        <v>369213.18</v>
+      </c>
+      <c r="F3" s="1">
+        <v>308347.45</v>
+      </c>
+      <c r="G3" s="1">
+        <v>308135.90639999998</v>
+      </c>
+      <c r="H3" s="1">
+        <v>306683.44893000001</v>
+      </c>
+      <c r="I3" s="1">
+        <v>306683.44893000001</v>
+      </c>
+      <c r="J3" s="1">
+        <v>306683.44893000001</v>
+      </c>
+      <c r="K3" s="1">
+        <v>306683.44893000001</v>
+      </c>
+      <c r="L3" s="1">
+        <v>229345.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1">
+        <v>242117.48</v>
+      </c>
+      <c r="D4" s="1">
+        <v>247702.99</v>
+      </c>
+      <c r="E4" s="1">
+        <v>248721.86</v>
+      </c>
+      <c r="F4" s="1">
+        <v>163936.92800000001</v>
+      </c>
+      <c r="G4" s="1">
+        <v>164690.66990000001</v>
+      </c>
+      <c r="H4" s="1">
+        <v>164115.05570999999</v>
+      </c>
+      <c r="I4" s="1">
+        <v>164115.05570999999</v>
+      </c>
+      <c r="J4" s="1">
+        <v>164115.05570999999</v>
+      </c>
+      <c r="K4" s="1">
+        <v>164115.05570999999</v>
+      </c>
+      <c r="L4" s="1">
+        <v>58565.57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1">
+        <v>166953.98000000001</v>
+      </c>
+      <c r="D5" s="1">
+        <v>173655.38</v>
+      </c>
+      <c r="E5" s="1">
+        <v>176219.35</v>
+      </c>
+      <c r="F5" s="1">
+        <v>81821.172000000006</v>
+      </c>
+      <c r="G5" s="1">
+        <v>82983.352799999993</v>
+      </c>
+      <c r="H5" s="1">
+        <v>82929.336649999997</v>
+      </c>
+      <c r="I5" s="1">
+        <v>82929.336649999997</v>
+      </c>
+      <c r="J5" s="1">
+        <v>82929.336649999997</v>
+      </c>
+      <c r="K5" s="1">
+        <v>82929.336649999997</v>
+      </c>
+      <c r="L5" s="1">
+        <v>-38670.720000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1">
+        <v>119100.05</v>
+      </c>
+      <c r="D6" s="1">
+        <v>126259.95</v>
+      </c>
+      <c r="E6" s="1">
+        <v>129646.42</v>
+      </c>
+      <c r="F6" s="1">
+        <v>31508.960999999999</v>
+      </c>
+      <c r="G6" s="1">
+        <v>32840.423699999999</v>
+      </c>
+      <c r="H6" s="1">
+        <v>33065.681839999997</v>
+      </c>
+      <c r="I6" s="1">
+        <v>33065.681839999997</v>
+      </c>
+      <c r="J6" s="1">
+        <v>33065.681839999997</v>
+      </c>
+      <c r="K6" s="1">
+        <v>33065.681839999997</v>
+      </c>
+      <c r="L6" s="1">
+        <v>-96041.02</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1">
+        <v>86725.9</v>
+      </c>
+      <c r="D7" s="1">
+        <v>94063.67</v>
+      </c>
+      <c r="E7" s="1">
+        <v>97854.16</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-1837.6179999999999</v>
+      </c>
+      <c r="G7" s="1">
+        <v>-431.98739999999998</v>
+      </c>
+      <c r="H7" s="1">
+        <v>-58.846150000000002</v>
+      </c>
+      <c r="I7" s="1">
+        <v>-58.846150000000002</v>
+      </c>
+      <c r="J7" s="1">
+        <v>-58.846150000000002</v>
+      </c>
+      <c r="K7" s="1">
+        <v>-58.846150000000002</v>
+      </c>
+      <c r="L7" s="1">
+        <v>-132907.89000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1">
+        <v>63641.04</v>
+      </c>
+      <c r="D8" s="1">
+        <v>71049.759999999995</v>
+      </c>
+      <c r="E8" s="1">
+        <v>75041.09</v>
+      </c>
+      <c r="F8" s="1">
+        <v>-25362.891</v>
+      </c>
+      <c r="G8" s="1">
+        <v>-23921.018599999999</v>
+      </c>
+      <c r="H8" s="1">
+        <v>-23465.22135</v>
+      </c>
+      <c r="I8" s="1">
+        <v>-23465.22135</v>
+      </c>
+      <c r="J8" s="1">
+        <v>-23465.22135</v>
+      </c>
+      <c r="K8" s="1">
+        <v>-23465.22135</v>
+      </c>
+      <c r="L8" s="1">
+        <v>-158362.09</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1">
+        <v>46453.29</v>
+      </c>
+      <c r="D9" s="1">
+        <v>53892.55</v>
+      </c>
+      <c r="E9" s="1">
+        <v>57990.13</v>
+      </c>
+      <c r="F9" s="1">
+        <v>-42777.686000000002</v>
+      </c>
+      <c r="G9" s="1">
+        <v>-41315.974800000004</v>
+      </c>
+      <c r="H9" s="1">
+        <v>-40810.389860000003</v>
+      </c>
+      <c r="I9" s="1">
+        <v>-40810.389860000003</v>
+      </c>
+      <c r="J9" s="1">
+        <v>-40810.389860000003</v>
+      </c>
+      <c r="K9" s="1">
+        <v>-40810.389860000003</v>
+      </c>
+      <c r="L9" s="1">
+        <v>-176921.34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="1">
-        <v>711911.2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>700076.3</v>
-      </c>
-      <c r="D3" s="1">
-        <v>682761.6</v>
-      </c>
-      <c r="E3" s="1">
-        <v>711921.3</v>
-      </c>
-      <c r="F3" s="1">
-        <v>699904.5</v>
-      </c>
-      <c r="G3" s="1">
-        <v>682617.8</v>
-      </c>
-      <c r="H3" s="1">
-        <v>712071.4</v>
-      </c>
-      <c r="I3" s="1">
-        <v>699947.3</v>
-      </c>
-      <c r="J3" s="1">
-        <v>682521.7</v>
-      </c>
-      <c r="K3" s="1">
-        <v>694725.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C12" s="1">
+        <v>295.04313999999999</v>
+      </c>
+      <c r="D12" s="1">
+        <v>294.16212999999999</v>
+      </c>
+      <c r="E12" s="1">
+        <v>292.05856</v>
+      </c>
+      <c r="F12" s="1">
+        <v>279.57616949999999</v>
+      </c>
+      <c r="G12" s="1">
+        <v>278.50873799999999</v>
+      </c>
+      <c r="H12" s="1">
+        <v>277.19011325999998</v>
+      </c>
+      <c r="I12" s="1">
+        <v>277.19011325999998</v>
+      </c>
+      <c r="J12" s="1">
+        <v>277.19011325999998</v>
+      </c>
+      <c r="K12" s="1">
+        <v>277.19011325999998</v>
+      </c>
+      <c r="L12" s="1">
+        <v>246.68723</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="1">
-        <v>592554.80000000005</v>
-      </c>
-      <c r="C4" s="1">
-        <v>584133.19999999995</v>
-      </c>
-      <c r="D4" s="1">
-        <v>560471</v>
-      </c>
-      <c r="E4" s="1">
-        <v>592517</v>
-      </c>
-      <c r="F4" s="1">
-        <v>583934.19999999995</v>
-      </c>
-      <c r="G4" s="1">
-        <v>560345.69999999995</v>
-      </c>
-      <c r="H4" s="1">
-        <v>592657</v>
-      </c>
-      <c r="I4" s="1">
-        <v>584006.6</v>
-      </c>
-      <c r="J4" s="1">
-        <v>560276</v>
-      </c>
-      <c r="K4" s="1">
-        <v>569038.19999999995</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C13" s="1">
+        <v>188.86859999999999</v>
+      </c>
+      <c r="D13" s="1">
+        <v>190.58573000000001</v>
+      </c>
+      <c r="E13" s="1">
+        <v>189.92447999999999</v>
+      </c>
+      <c r="F13" s="1">
+        <v>158.6149437</v>
+      </c>
+      <c r="G13" s="1">
+        <v>158.50612469999999</v>
+      </c>
+      <c r="H13" s="1">
+        <v>157.75897578999999</v>
+      </c>
+      <c r="I13" s="1">
+        <v>157.75897578999999</v>
+      </c>
+      <c r="J13" s="1">
+        <v>157.75897578999999</v>
+      </c>
+      <c r="K13" s="1">
+        <v>157.75897578999999</v>
+      </c>
+      <c r="L13" s="1">
+        <v>117.97623</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="1">
-        <v>530129.5</v>
-      </c>
-      <c r="C5" s="1">
-        <v>523614.4</v>
-      </c>
-      <c r="D5" s="1">
-        <v>497210.9</v>
-      </c>
-      <c r="E5" s="1">
-        <v>530062.30000000005</v>
-      </c>
-      <c r="F5" s="1">
-        <v>523403.1</v>
-      </c>
-      <c r="G5" s="1">
-        <v>497095.7</v>
-      </c>
-      <c r="H5" s="1">
-        <v>530178.5</v>
-      </c>
-      <c r="I5" s="1">
-        <v>523468.2</v>
-      </c>
-      <c r="J5" s="1">
-        <v>497039.3</v>
-      </c>
-      <c r="K5" s="1">
-        <v>503867.9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C14" s="1">
+        <v>124.54603</v>
+      </c>
+      <c r="D14" s="1">
+        <v>127.41923</v>
+      </c>
+      <c r="E14" s="1">
+        <v>127.94334000000001</v>
+      </c>
+      <c r="F14" s="1">
+        <v>84.329695599999994</v>
+      </c>
+      <c r="G14" s="1">
+        <v>84.717422799999994</v>
+      </c>
+      <c r="H14" s="1">
+        <v>84.421324949999999</v>
+      </c>
+      <c r="I14" s="1">
+        <v>84.421324949999999</v>
+      </c>
+      <c r="J14" s="1">
+        <v>84.421324949999999</v>
+      </c>
+      <c r="K14" s="1">
+        <v>84.421324949999999</v>
+      </c>
+      <c r="L14" s="1">
+        <v>30.12632</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="1">
-        <v>490296.8</v>
-      </c>
-      <c r="C6" s="1">
-        <v>484647.2</v>
-      </c>
-      <c r="D6" s="1">
-        <v>457273.3</v>
-      </c>
-      <c r="E6" s="1">
-        <v>490207.8</v>
-      </c>
-      <c r="F6" s="1">
-        <v>484425</v>
-      </c>
-      <c r="G6" s="1">
-        <v>457163.7</v>
-      </c>
-      <c r="H6" s="1">
-        <v>490299.3</v>
-      </c>
-      <c r="I6" s="1">
-        <v>484473.2</v>
-      </c>
-      <c r="J6" s="1">
-        <v>457115.8</v>
-      </c>
-      <c r="K6" s="1">
-        <v>463060.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="C15" s="1">
+        <v>85.881680000000003</v>
+      </c>
+      <c r="D15" s="1">
+        <v>89.328900000000004</v>
+      </c>
+      <c r="E15" s="1">
+        <v>90.647810000000007</v>
+      </c>
+      <c r="F15" s="1">
+        <v>42.089080000000003</v>
+      </c>
+      <c r="G15" s="1">
+        <v>42.686909900000003</v>
+      </c>
+      <c r="H15" s="1">
+        <v>42.659123790000002</v>
+      </c>
+      <c r="I15" s="1">
+        <v>42.659123790000002</v>
+      </c>
+      <c r="J15" s="1">
+        <v>42.659123790000002</v>
+      </c>
+      <c r="K15" s="1">
+        <v>42.659123790000002</v>
+      </c>
+      <c r="L15" s="1">
+        <v>-19.892340000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="1">
-        <v>462509.5</v>
-      </c>
-      <c r="C7" s="1">
-        <v>457270.5</v>
-      </c>
-      <c r="D7" s="1">
-        <v>429665.9</v>
-      </c>
-      <c r="E7" s="1">
-        <v>462404.2</v>
-      </c>
-      <c r="F7" s="1">
-        <v>457038.6</v>
-      </c>
-      <c r="G7" s="1">
-        <v>429559.3</v>
-      </c>
-      <c r="H7" s="1">
-        <v>462474.9</v>
-      </c>
-      <c r="I7" s="1">
-        <v>457070.3</v>
-      </c>
-      <c r="J7" s="1">
-        <v>429516.9</v>
-      </c>
-      <c r="K7" s="1">
-        <v>435038.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C16" s="1">
+        <v>61.265459999999997</v>
+      </c>
+      <c r="D16" s="1">
+        <v>64.948530000000005</v>
+      </c>
+      <c r="E16" s="1">
+        <v>66.690539999999999</v>
+      </c>
+      <c r="F16" s="1">
+        <v>16.2083133</v>
+      </c>
+      <c r="G16" s="1">
+        <v>16.893222099999999</v>
+      </c>
+      <c r="H16" s="1">
+        <v>17.009095599999998</v>
+      </c>
+      <c r="I16" s="1">
+        <v>17.009095599999998</v>
+      </c>
+      <c r="J16" s="1">
+        <v>17.009095599999998</v>
+      </c>
+      <c r="K16" s="1">
+        <v>17.009095599999998</v>
+      </c>
+      <c r="L16" s="1">
+        <v>-49.403820000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="1">
-        <v>442050.3</v>
-      </c>
-      <c r="C8" s="1">
-        <v>437021.5</v>
-      </c>
-      <c r="D8" s="1">
-        <v>409471.9</v>
-      </c>
-      <c r="E8" s="1">
-        <v>441933</v>
-      </c>
-      <c r="F8" s="1">
-        <v>436781.9</v>
-      </c>
-      <c r="G8" s="1">
-        <v>409366.7</v>
-      </c>
-      <c r="H8" s="1">
-        <v>441987.8</v>
-      </c>
-      <c r="I8" s="1">
-        <v>436800.2</v>
-      </c>
-      <c r="J8" s="1">
-        <v>409328</v>
-      </c>
-      <c r="K8" s="1">
-        <v>414631.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="C17" s="1">
+        <v>44.612090000000002</v>
+      </c>
+      <c r="D17" s="1">
+        <v>48.386659999999999</v>
+      </c>
+      <c r="E17" s="1">
+        <v>50.336500000000001</v>
+      </c>
+      <c r="F17" s="1">
+        <v>-0.94527669999999997</v>
+      </c>
+      <c r="G17" s="1">
+        <v>-0.22221579999999999</v>
+      </c>
+      <c r="H17" s="1">
+        <v>-3.027065E-2</v>
+      </c>
+      <c r="I17" s="1">
+        <v>-3.027065E-2</v>
+      </c>
+      <c r="J17" s="1">
+        <v>-3.027065E-2</v>
+      </c>
+      <c r="K17" s="1">
+        <v>-3.027065E-2</v>
+      </c>
+      <c r="L17" s="1">
+        <v>-68.368260000000006</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="1">
-        <v>426399.1</v>
-      </c>
-      <c r="C9" s="1">
-        <v>421487.2</v>
-      </c>
-      <c r="D9" s="1">
-        <v>394091.2</v>
-      </c>
-      <c r="E9" s="1">
-        <v>426273.2</v>
-      </c>
-      <c r="F9" s="1">
-        <v>421241.4</v>
-      </c>
-      <c r="G9" s="1">
-        <v>393986.6</v>
-      </c>
-      <c r="H9" s="1">
-        <v>426316.3</v>
-      </c>
-      <c r="I9" s="1">
-        <v>421249.7</v>
-      </c>
-      <c r="J9" s="1">
-        <v>393950.4</v>
-      </c>
-      <c r="K9" s="1">
-        <v>399130.7</v>
+      <c r="C18" s="1">
+        <v>32.737160000000003</v>
+      </c>
+      <c r="D18" s="1">
+        <v>36.548229999999997</v>
+      </c>
+      <c r="E18" s="1">
+        <v>38.601379999999999</v>
+      </c>
+      <c r="F18" s="1">
+        <v>-13.0467546</v>
+      </c>
+      <c r="G18" s="1">
+        <v>-12.305050700000001</v>
+      </c>
+      <c r="H18" s="1">
+        <v>-12.070587120000001</v>
+      </c>
+      <c r="I18" s="1">
+        <v>-12.070587120000001</v>
+      </c>
+      <c r="J18" s="1">
+        <v>-12.070587120000001</v>
+      </c>
+      <c r="K18" s="1">
+        <v>-12.070587120000001</v>
+      </c>
+      <c r="L18" s="1">
+        <v>-81.461979999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="1">
+        <v>23.895720000000001</v>
+      </c>
+      <c r="D19" s="1">
+        <v>27.7225</v>
+      </c>
+      <c r="E19" s="1">
+        <v>29.830310000000001</v>
+      </c>
+      <c r="F19" s="1">
+        <v>-22.004982399999999</v>
+      </c>
+      <c r="G19" s="1">
+        <v>-21.253073499999999</v>
+      </c>
+      <c r="H19" s="1">
+        <v>-20.9929989</v>
+      </c>
+      <c r="I19" s="1">
+        <v>-20.9929989</v>
+      </c>
+      <c r="J19" s="1">
+        <v>-20.9929989</v>
+      </c>
+      <c r="K19" s="1">
+        <v>-20.9929989</v>
+      </c>
+      <c r="L19" s="1">
+        <v>-91.008920000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:K9">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:K9">
+  <conditionalFormatting sqref="C2:L10">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -1254,7 +1617,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:K2">
+  <conditionalFormatting sqref="C12:L19">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
